--- a/matriceTracciabilita/matrice tracciabilità.xlsx
+++ b/matriceTracciabilita/matrice tracciabilità.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
   <si>
     <t>Requisiti</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>CU.M.7</t>
+  </si>
+  <si>
+    <t>CU.F.8</t>
+  </si>
+  <si>
+    <t>RF.A.F.7</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -466,6 +472,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,8 +504,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -789,208 +801,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH70"/>
+  <dimension ref="A1:BI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BJ27" sqref="BJ27"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="3.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="5" customWidth="1"/>
-    <col min="5" max="59" width="3.25" customWidth="1"/>
+    <col min="5" max="60" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:60">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-    </row>
-    <row r="2" spans="2:60">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-    </row>
-    <row r="3" spans="2:60">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10" t="s">
+    <row r="1" spans="2:61">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+    </row>
+    <row r="2" spans="2:61">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+    </row>
+    <row r="3" spans="2:61">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="7"/>
-    </row>
-    <row r="4" spans="2:60" s="1" customFormat="1" ht="61.5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="10"/>
+    </row>
+    <row r="4" spans="2:61" s="1" customFormat="1" ht="61.5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1070,96 +1085,99 @@
         <v>27</v>
       </c>
       <c r="AE4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH4" s="7"/>
-    </row>
-    <row r="5" spans="2:60" ht="15" customHeight="1">
-      <c r="B5" s="7"/>
+      <c r="BI4" s="10"/>
+    </row>
+    <row r="5" spans="2:61" ht="15" customHeight="1">
+      <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1212,7 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
+      <c r="AE5" s="7"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
@@ -1223,11 +1241,12 @@
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
       <c r="BG5" s="6"/>
-      <c r="BH5" s="7"/>
-    </row>
-    <row r="6" spans="2:60">
-      <c r="B6" s="7"/>
-      <c r="C6" s="11"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="10"/>
+    </row>
+    <row r="6" spans="2:61">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1259,7 +1278,7 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
@@ -1288,11 +1307,12 @@
       <c r="BE6" s="6"/>
       <c r="BF6" s="6"/>
       <c r="BG6" s="6"/>
-      <c r="BH6" s="7"/>
-    </row>
-    <row r="7" spans="2:60">
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="10"/>
+    </row>
+    <row r="7" spans="2:61">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1324,7 +1344,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -1353,11 +1373,12 @@
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
-      <c r="BH7" s="7"/>
-    </row>
-    <row r="8" spans="2:60">
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="10"/>
+    </row>
+    <row r="8" spans="2:61">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
         <v>60</v>
       </c>
@@ -1389,7 +1410,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1418,11 +1439,12 @@
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="7"/>
-    </row>
-    <row r="9" spans="2:60">
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="10"/>
+    </row>
+    <row r="9" spans="2:61">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1456,7 +1478,7 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
+      <c r="AE9" s="7"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1485,11 +1507,12 @@
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
       <c r="BG9" s="6"/>
-      <c r="BH9" s="7"/>
-    </row>
-    <row r="10" spans="2:60">
-      <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="10"/>
+    </row>
+    <row r="10" spans="2:61">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1521,7 +1544,7 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
+      <c r="AE10" s="7"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
@@ -1550,11 +1573,12 @@
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
       <c r="BG10" s="6"/>
-      <c r="BH10" s="7"/>
-    </row>
-    <row r="11" spans="2:60">
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="10"/>
+    </row>
+    <row r="11" spans="2:61">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1586,7 +1610,7 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
+      <c r="AE11" s="7"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -1615,11 +1639,12 @@
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
       <c r="BG11" s="6"/>
-      <c r="BH11" s="7"/>
-    </row>
-    <row r="12" spans="2:60">
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="10"/>
+    </row>
+    <row r="12" spans="2:61">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
@@ -1651,7 +1676,7 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
+      <c r="AE12" s="7"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
@@ -1680,11 +1705,12 @@
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
       <c r="BG12" s="6"/>
-      <c r="BH12" s="7"/>
-    </row>
-    <row r="13" spans="2:60">
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="10"/>
+    </row>
+    <row r="13" spans="2:61">
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1742,7 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
+      <c r="AE13" s="7"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
@@ -1745,11 +1771,12 @@
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
       <c r="BG13" s="6"/>
-      <c r="BH13" s="7"/>
-    </row>
-    <row r="14" spans="2:60">
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="10"/>
+    </row>
+    <row r="14" spans="2:61">
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1781,7 +1808,7 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
+      <c r="AE14" s="7"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
@@ -1810,11 +1837,12 @@
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
       <c r="BG14" s="6"/>
-      <c r="BH14" s="7"/>
-    </row>
-    <row r="15" spans="2:60">
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="10"/>
+    </row>
+    <row r="15" spans="2:61">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="3" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1874,7 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
+      <c r="AE15" s="7"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
@@ -1875,11 +1903,12 @@
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
       <c r="BG15" s="6"/>
-      <c r="BH15" s="7"/>
-    </row>
-    <row r="16" spans="2:60">
-      <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="10"/>
+    </row>
+    <row r="16" spans="2:61">
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
@@ -1911,7 +1940,7 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
@@ -1940,11 +1969,12 @@
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
       <c r="BG16" s="6"/>
-      <c r="BH16" s="7"/>
-    </row>
-    <row r="17" spans="1:60">
-      <c r="B17" s="7"/>
-      <c r="C17" s="11"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="10"/>
+    </row>
+    <row r="17" spans="2:61">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
@@ -1976,7 +2006,7 @@
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
+      <c r="AE17" s="7"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
@@ -2005,11 +2035,12 @@
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
       <c r="BG17" s="6"/>
-      <c r="BH17" s="7"/>
-    </row>
-    <row r="18" spans="1:60">
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="10"/>
+    </row>
+    <row r="18" spans="2:61">
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
@@ -2041,7 +2072,7 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
@@ -2070,11 +2101,12 @@
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
       <c r="BG18" s="6"/>
-      <c r="BH18" s="7"/>
-    </row>
-    <row r="19" spans="1:60">
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="10"/>
+    </row>
+    <row r="19" spans="2:61">
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
@@ -2106,7 +2138,7 @@
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
+      <c r="AE19" s="7"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
@@ -2135,11 +2167,12 @@
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
-      <c r="BH19" s="7"/>
-    </row>
-    <row r="20" spans="1:60">
-      <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="10"/>
+    </row>
+    <row r="20" spans="2:61">
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3" t="s">
         <v>72</v>
       </c>
@@ -2171,7 +2204,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
+      <c r="AE20" s="7"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
@@ -2200,11 +2233,12 @@
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
       <c r="BG20" s="6"/>
-      <c r="BH20" s="7"/>
-    </row>
-    <row r="21" spans="1:60">
-      <c r="B21" s="7"/>
-      <c r="C21" s="11"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="10"/>
+    </row>
+    <row r="21" spans="2:61">
+      <c r="B21" s="10"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="3" t="s">
         <v>73</v>
       </c>
@@ -2236,7 +2270,7 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
+      <c r="AE21" s="7"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
@@ -2265,11 +2299,12 @@
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
       <c r="BG21" s="6"/>
-      <c r="BH21" s="7"/>
-    </row>
-    <row r="22" spans="1:60">
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="10"/>
+    </row>
+    <row r="22" spans="2:61">
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
@@ -2301,7 +2336,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
+      <c r="AE22" s="7"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
@@ -2330,11 +2365,12 @@
       <c r="BE22" s="6"/>
       <c r="BF22" s="6"/>
       <c r="BG22" s="6"/>
-      <c r="BH22" s="7"/>
-    </row>
-    <row r="23" spans="1:60">
-      <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="10"/>
+    </row>
+    <row r="23" spans="2:61">
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
@@ -2366,7 +2402,7 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
+      <c r="AE23" s="7"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
@@ -2395,11 +2431,12 @@
       <c r="BE23" s="6"/>
       <c r="BF23" s="6"/>
       <c r="BG23" s="6"/>
-      <c r="BH23" s="7"/>
-    </row>
-    <row r="24" spans="1:60">
-      <c r="B24" s="7"/>
-      <c r="C24" s="11"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="10"/>
+    </row>
+    <row r="24" spans="2:61">
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2431,7 +2468,7 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
+      <c r="AE24" s="7"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
@@ -2460,11 +2497,12 @@
       <c r="BE24" s="6"/>
       <c r="BF24" s="6"/>
       <c r="BG24" s="6"/>
-      <c r="BH24" s="7"/>
-    </row>
-    <row r="25" spans="1:60">
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="10"/>
+    </row>
+    <row r="25" spans="2:61">
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="3" t="s">
         <v>77</v>
       </c>
@@ -2496,7 +2534,7 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
@@ -2525,11 +2563,12 @@
       <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
       <c r="BG25" s="6"/>
-      <c r="BH25" s="7"/>
-    </row>
-    <row r="26" spans="1:60">
-      <c r="B26" s="7"/>
-      <c r="C26" s="11"/>
+      <c r="BH25" s="6"/>
+      <c r="BI25" s="10"/>
+    </row>
+    <row r="26" spans="2:61">
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2561,7 +2600,7 @@
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
+      <c r="AE26" s="7"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
@@ -2590,11 +2629,12 @@
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
       <c r="BG26" s="6"/>
-      <c r="BH26" s="7"/>
-    </row>
-    <row r="27" spans="1:60">
-      <c r="B27" s="7"/>
-      <c r="C27" s="11"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="10"/>
+    </row>
+    <row r="27" spans="2:61">
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
@@ -2626,7 +2666,7 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
+      <c r="AE27" s="7"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
@@ -2655,11 +2695,12 @@
       <c r="BE27" s="6"/>
       <c r="BF27" s="6"/>
       <c r="BG27" s="6"/>
-      <c r="BH27" s="7"/>
-    </row>
-    <row r="28" spans="1:60">
-      <c r="B28" s="7"/>
-      <c r="C28" s="11"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="10"/>
+    </row>
+    <row r="28" spans="2:61">
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="3" t="s">
         <v>80</v>
       </c>
@@ -2691,7 +2732,7 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
+      <c r="AE28" s="7"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
@@ -2720,11 +2761,12 @@
       <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
       <c r="BG28" s="6"/>
-      <c r="BH28" s="7"/>
-    </row>
-    <row r="29" spans="1:60">
-      <c r="B29" s="7"/>
-      <c r="C29" s="11"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="10"/>
+    </row>
+    <row r="29" spans="2:61">
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="3" t="s">
         <v>111</v>
       </c>
@@ -2756,7 +2798,7 @@
       </c>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
@@ -2785,11 +2827,12 @@
       <c r="BE29" s="6"/>
       <c r="BF29" s="6"/>
       <c r="BG29" s="6"/>
-      <c r="BH29" s="7"/>
-    </row>
-    <row r="30" spans="1:60">
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="10"/>
+    </row>
+    <row r="30" spans="2:61">
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="3" t="s">
         <v>112</v>
       </c>
@@ -2823,7 +2866,7 @@
       <c r="AD30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AE30" s="6"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
@@ -2852,503 +2895,511 @@
       <c r="BE30" s="6"/>
       <c r="BF30" s="6"/>
       <c r="BG30" s="6"/>
-      <c r="BH30" s="7"/>
-    </row>
-    <row r="31" spans="1:60">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
-      <c r="AV31" s="8"/>
-      <c r="AW31" s="8"/>
-      <c r="AX31" s="8"/>
-      <c r="AY31" s="8"/>
-      <c r="AZ31" s="8"/>
-      <c r="BA31" s="8"/>
-      <c r="BB31" s="8"/>
-      <c r="BC31" s="8"/>
-      <c r="BD31" s="8"/>
-      <c r="BE31" s="8"/>
-      <c r="BF31" s="8"/>
-      <c r="BG31" s="8"/>
-      <c r="BH31" s="7"/>
-    </row>
-    <row r="32" spans="1:60">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="9"/>
-      <c r="AT32" s="9"/>
-      <c r="AU32" s="9"/>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9"/>
-      <c r="AX32" s="9"/>
-      <c r="AY32" s="9"/>
-      <c r="AZ32" s="9"/>
-      <c r="BA32" s="9"/>
-      <c r="BB32" s="9"/>
-      <c r="BC32" s="9"/>
-      <c r="BD32" s="9"/>
-      <c r="BE32" s="9"/>
-      <c r="BF32" s="9"/>
-      <c r="BG32" s="9"/>
-      <c r="BH32" s="7"/>
-    </row>
-    <row r="33" spans="1:60">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
-      <c r="BG33" s="9"/>
-      <c r="BH33" s="7"/>
-    </row>
-    <row r="34" spans="1:60">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="10"/>
+    </row>
+    <row r="31" spans="2:61">
+      <c r="B31" s="10"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="19"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="10"/>
+    </row>
+    <row r="32" spans="2:61">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="11"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="10"/>
+    </row>
+    <row r="33" spans="1:61">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="10"/>
+    </row>
+    <row r="34" spans="1:61">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="10"/>
+    </row>
+    <row r="35" spans="1:61">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="7"/>
-    </row>
-    <row r="35" spans="1:60" ht="61.5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="10"/>
+    </row>
+    <row r="36" spans="1:61" ht="61.5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V35" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W35" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="2" t="s">
+      <c r="X36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Y36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA35" s="2" t="s">
+      <c r="AA36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB35" s="2" t="s">
+      <c r="AB36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AC36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AD36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AE36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG35" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI35" s="2" t="s">
+      <c r="AJ36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ35" s="2" t="s">
+      <c r="AK36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK35" s="2" t="s">
+      <c r="AL36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AM36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM35" s="2" t="s">
+      <c r="AN36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN35" s="2" t="s">
+      <c r="AO36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO35" s="2" t="s">
+      <c r="AP36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP35" s="2" t="s">
+      <c r="AQ36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ35" s="2" t="s">
+      <c r="AR36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR35" s="2" t="s">
+      <c r="AS36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS35" s="2" t="s">
+      <c r="AT36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT35" s="2" t="s">
+      <c r="AU36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU35" s="2" t="s">
+      <c r="AV36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV35" s="2" t="s">
+      <c r="AW36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW35" s="2" t="s">
+      <c r="AX36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX35" s="2" t="s">
+      <c r="AY36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY35" s="2" t="s">
+      <c r="AZ36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ35" s="2" t="s">
+      <c r="BA36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA35" s="2" t="s">
+      <c r="BB36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB35" s="2" t="s">
+      <c r="BC36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC35" s="2" t="s">
+      <c r="BD36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD35" s="2" t="s">
+      <c r="BE36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE35" s="2" t="s">
+      <c r="BF36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF35" s="2" t="s">
+      <c r="BG36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG35" s="2" t="s">
+      <c r="BH36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH35" s="7"/>
-    </row>
-    <row r="36" spans="1:60" ht="15" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="11" t="s">
+      <c r="BI36" s="10"/>
+    </row>
+    <row r="37" spans="1:61" ht="15" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="7"/>
-    </row>
-    <row r="37" spans="1:60">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3376,7 +3427,7 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
+      <c r="AE37" s="7"/>
       <c r="AF37" s="6" t="s">
         <v>110</v>
       </c>
@@ -3407,14 +3458,15 @@
       <c r="BE37" s="6"/>
       <c r="BF37" s="6"/>
       <c r="BG37" s="6"/>
-      <c r="BH37" s="7"/>
-    </row>
-    <row r="38" spans="1:60">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
+      <c r="BH37" s="6"/>
+      <c r="BI37" s="10"/>
+    </row>
+    <row r="38" spans="1:61">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3442,7 +3494,7 @@
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
+      <c r="AE38" s="7"/>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6" t="s">
         <v>110</v>
@@ -3473,14 +3525,15 @@
       <c r="BE38" s="6"/>
       <c r="BF38" s="6"/>
       <c r="BG38" s="6"/>
-      <c r="BH38" s="7"/>
-    </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="11"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="10"/>
+    </row>
+    <row r="39" spans="1:61">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3508,7 +3561,7 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
+      <c r="AE39" s="7"/>
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6" t="s">
@@ -3539,14 +3592,15 @@
       <c r="BE39" s="6"/>
       <c r="BF39" s="6"/>
       <c r="BG39" s="6"/>
-      <c r="BH39" s="7"/>
-    </row>
-    <row r="40" spans="1:60">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="11"/>
+      <c r="BH39" s="6"/>
+      <c r="BI39" s="10"/>
+    </row>
+    <row r="40" spans="1:61">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3574,7 +3628,7 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
+      <c r="AE40" s="7"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
@@ -3605,14 +3659,15 @@
       <c r="BE40" s="6"/>
       <c r="BF40" s="6"/>
       <c r="BG40" s="6"/>
-      <c r="BH40" s="7"/>
-    </row>
-    <row r="41" spans="1:60">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="11"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="10"/>
+    </row>
+    <row r="41" spans="1:61">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3640,7 +3695,7 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
+      <c r="AE41" s="7"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
@@ -3671,14 +3726,15 @@
       <c r="BE41" s="6"/>
       <c r="BF41" s="6"/>
       <c r="BG41" s="6"/>
-      <c r="BH41" s="7"/>
-    </row>
-    <row r="42" spans="1:60">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
+      <c r="BH41" s="6"/>
+      <c r="BI41" s="10"/>
+    </row>
+    <row r="42" spans="1:61">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3706,7 +3762,7 @@
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="7"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
@@ -3737,14 +3793,15 @@
       <c r="BE42" s="6"/>
       <c r="BF42" s="6"/>
       <c r="BG42" s="6"/>
-      <c r="BH42" s="7"/>
-    </row>
-    <row r="43" spans="1:60">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="10"/>
+    </row>
+    <row r="43" spans="1:61">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3772,7 +3829,7 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
+      <c r="AE43" s="7"/>
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
@@ -3803,14 +3860,15 @@
       <c r="BE43" s="6"/>
       <c r="BF43" s="6"/>
       <c r="BG43" s="6"/>
-      <c r="BH43" s="7"/>
-    </row>
-    <row r="44" spans="1:60">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="11"/>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="10"/>
+    </row>
+    <row r="44" spans="1:61">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3838,7 +3896,7 @@
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
+      <c r="AE44" s="7"/>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
@@ -3869,14 +3927,15 @@
       <c r="BE44" s="6"/>
       <c r="BF44" s="6"/>
       <c r="BG44" s="6"/>
-      <c r="BH44" s="7"/>
-    </row>
-    <row r="45" spans="1:60">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="10"/>
+    </row>
+    <row r="45" spans="1:61">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3904,7 +3963,7 @@
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
+      <c r="AE45" s="7"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -3935,14 +3994,15 @@
       <c r="BE45" s="6"/>
       <c r="BF45" s="6"/>
       <c r="BG45" s="6"/>
-      <c r="BH45" s="7"/>
-    </row>
-    <row r="46" spans="1:60">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="10"/>
+    </row>
+    <row r="46" spans="1:61">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3970,7 +4030,7 @@
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
@@ -4001,14 +4061,15 @@
       <c r="BE46" s="6"/>
       <c r="BF46" s="6"/>
       <c r="BG46" s="6"/>
-      <c r="BH46" s="7"/>
-    </row>
-    <row r="47" spans="1:60">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="10"/>
+    </row>
+    <row r="47" spans="1:61">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -4036,7 +4097,7 @@
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
+      <c r="AE47" s="7"/>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
@@ -4067,14 +4128,15 @@
       <c r="BE47" s="6"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="6"/>
-      <c r="BH47" s="7"/>
-    </row>
-    <row r="48" spans="1:60">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="10"/>
+    </row>
+    <row r="48" spans="1:61">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -4102,7 +4164,7 @@
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
+      <c r="AE48" s="7"/>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
@@ -4133,14 +4195,15 @@
       <c r="BE48" s="6"/>
       <c r="BF48" s="6"/>
       <c r="BG48" s="6"/>
-      <c r="BH48" s="7"/>
-    </row>
-    <row r="49" spans="1:60">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="11"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="10"/>
+    </row>
+    <row r="49" spans="1:61">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -4168,7 +4231,7 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
+      <c r="AE49" s="7"/>
       <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
@@ -4199,14 +4262,15 @@
       <c r="BE49" s="6"/>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
-      <c r="BH49" s="7"/>
-    </row>
-    <row r="50" spans="1:60">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="11"/>
+      <c r="BH49" s="6"/>
+      <c r="BI49" s="10"/>
+    </row>
+    <row r="50" spans="1:61">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -4234,7 +4298,7 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
+      <c r="AE50" s="7"/>
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
@@ -4265,14 +4329,15 @@
       <c r="BE50" s="6"/>
       <c r="BF50" s="6"/>
       <c r="BG50" s="6"/>
-      <c r="BH50" s="7"/>
-    </row>
-    <row r="51" spans="1:60">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="11"/>
+      <c r="BH50" s="6"/>
+      <c r="BI50" s="10"/>
+    </row>
+    <row r="51" spans="1:61">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -4300,7 +4365,7 @@
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
@@ -4331,14 +4396,15 @@
       <c r="BE51" s="6"/>
       <c r="BF51" s="6"/>
       <c r="BG51" s="6"/>
-      <c r="BH51" s="7"/>
-    </row>
-    <row r="52" spans="1:60">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="11"/>
+      <c r="BH51" s="6"/>
+      <c r="BI51" s="10"/>
+    </row>
+    <row r="52" spans="1:61">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -4366,7 +4432,7 @@
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
+      <c r="AE52" s="7"/>
       <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
@@ -4397,14 +4463,15 @@
       <c r="BE52" s="6"/>
       <c r="BF52" s="6"/>
       <c r="BG52" s="6"/>
-      <c r="BH52" s="7"/>
-    </row>
-    <row r="53" spans="1:60">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="11"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="10"/>
+    </row>
+    <row r="53" spans="1:61">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -4432,7 +4499,7 @@
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
+      <c r="AE53" s="7"/>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
@@ -4463,14 +4530,15 @@
       <c r="BE53" s="6"/>
       <c r="BF53" s="6"/>
       <c r="BG53" s="6"/>
-      <c r="BH53" s="7"/>
-    </row>
-    <row r="54" spans="1:60">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="11"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="10"/>
+    </row>
+    <row r="54" spans="1:61">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -4498,7 +4566,7 @@
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
+      <c r="AE54" s="7"/>
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
@@ -4529,14 +4597,15 @@
       <c r="BE54" s="6"/>
       <c r="BF54" s="6"/>
       <c r="BG54" s="6"/>
-      <c r="BH54" s="7"/>
-    </row>
-    <row r="55" spans="1:60">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="11"/>
+      <c r="BH54" s="6"/>
+      <c r="BI54" s="10"/>
+    </row>
+    <row r="55" spans="1:61">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4564,7 +4633,7 @@
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
+      <c r="AE55" s="7"/>
       <c r="AF55" s="6"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
@@ -4595,14 +4664,15 @@
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
       <c r="BG55" s="6"/>
-      <c r="BH55" s="7"/>
-    </row>
-    <row r="56" spans="1:60">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="11"/>
+      <c r="BH55" s="6"/>
+      <c r="BI55" s="10"/>
+    </row>
+    <row r="56" spans="1:61">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -4630,7 +4700,7 @@
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
+      <c r="AE56" s="7"/>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
@@ -4661,14 +4731,15 @@
       <c r="BE56" s="6"/>
       <c r="BF56" s="6"/>
       <c r="BG56" s="6"/>
-      <c r="BH56" s="7"/>
-    </row>
-    <row r="57" spans="1:60">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="11"/>
+      <c r="BH56" s="6"/>
+      <c r="BI56" s="10"/>
+    </row>
+    <row r="57" spans="1:61">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4696,7 +4767,7 @@
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
+      <c r="AE57" s="7"/>
       <c r="AF57" s="6"/>
       <c r="AG57" s="6"/>
       <c r="AH57" s="6"/>
@@ -4727,14 +4798,15 @@
       <c r="BE57" s="6"/>
       <c r="BF57" s="6"/>
       <c r="BG57" s="6"/>
-      <c r="BH57" s="7"/>
-    </row>
-    <row r="58" spans="1:60">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="11"/>
+      <c r="BH57" s="6"/>
+      <c r="BI57" s="10"/>
+    </row>
+    <row r="58" spans="1:61">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -4762,7 +4834,7 @@
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
+      <c r="AE58" s="7"/>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
@@ -4793,14 +4865,15 @@
       <c r="BE58" s="6"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
-      <c r="BH58" s="7"/>
-    </row>
-    <row r="59" spans="1:60">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="11"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="10"/>
+    </row>
+    <row r="59" spans="1:61">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -4828,7 +4901,7 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
+      <c r="AE59" s="7"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
@@ -4859,14 +4932,15 @@
       <c r="BE59" s="6"/>
       <c r="BF59" s="6"/>
       <c r="BG59" s="6"/>
-      <c r="BH59" s="7"/>
-    </row>
-    <row r="60" spans="1:60">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="11"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="10"/>
+    </row>
+    <row r="60" spans="1:61">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4894,7 +4968,7 @@
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
+      <c r="AE60" s="7"/>
       <c r="AF60" s="6"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6"/>
@@ -4925,14 +4999,15 @@
       <c r="BE60" s="6"/>
       <c r="BF60" s="6"/>
       <c r="BG60" s="6"/>
-      <c r="BH60" s="7"/>
-    </row>
-    <row r="61" spans="1:60">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="11"/>
+      <c r="BH60" s="6"/>
+      <c r="BI60" s="10"/>
+    </row>
+    <row r="61" spans="1:61">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -4960,7 +5035,7 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
+      <c r="AE61" s="7"/>
       <c r="AF61" s="6"/>
       <c r="AG61" s="6"/>
       <c r="AH61" s="6"/>
@@ -4991,14 +5066,15 @@
       <c r="BE61" s="6"/>
       <c r="BF61" s="6"/>
       <c r="BG61" s="6"/>
-      <c r="BH61" s="7"/>
-    </row>
-    <row r="62" spans="1:60">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="11"/>
+      <c r="BH61" s="6"/>
+      <c r="BI61" s="10"/>
+    </row>
+    <row r="62" spans="1:61">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -5026,7 +5102,7 @@
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
+      <c r="AE62" s="7"/>
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
@@ -5051,534 +5127,610 @@
       <c r="BA62" s="6"/>
       <c r="BB62" s="6"/>
       <c r="BC62" s="6"/>
-      <c r="BD62" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE62" s="6"/>
+      <c r="BD62" s="6"/>
+      <c r="BE62" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
-      <c r="BH62" s="7"/>
-    </row>
-    <row r="63" spans="1:60">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="17" t="s">
+      <c r="BH62" s="6"/>
+      <c r="BI62" s="10"/>
+    </row>
+    <row r="63" spans="1:61">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="6"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="6"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="6"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+      <c r="BE63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BI63" s="10"/>
+    </row>
+    <row r="64" spans="1:61">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="17"/>
-      <c r="AC63" s="17"/>
-      <c r="AD63" s="17"/>
-      <c r="AE63" s="17"/>
-      <c r="AF63" s="17"/>
-      <c r="AG63" s="17"/>
-      <c r="AH63" s="17"/>
-      <c r="AI63" s="17"/>
-      <c r="AJ63" s="17"/>
-      <c r="AK63" s="17"/>
-      <c r="AL63" s="17"/>
-      <c r="AM63" s="17"/>
-      <c r="AN63" s="17"/>
-      <c r="AO63" s="17"/>
-      <c r="AP63" s="17"/>
-      <c r="AQ63" s="17"/>
-      <c r="AR63" s="17"/>
-      <c r="AS63" s="17"/>
-      <c r="AT63" s="17"/>
-      <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
-      <c r="AW63" s="17"/>
-      <c r="AX63" s="17"/>
-      <c r="AY63" s="17"/>
-      <c r="AZ63" s="17"/>
-      <c r="BA63" s="17"/>
-      <c r="BB63" s="17"/>
-      <c r="BC63" s="17"/>
-      <c r="BD63" s="17"/>
-      <c r="BE63" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF63" s="17"/>
-      <c r="BG63" s="17"/>
-      <c r="BH63" s="7"/>
-    </row>
-    <row r="64" spans="1:60">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="17" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="9"/>
+      <c r="BB64" s="9"/>
+      <c r="BC64" s="9"/>
+      <c r="BD64" s="9"/>
+      <c r="BE64" s="9"/>
+      <c r="BF64" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG64" s="9"/>
+      <c r="BH64" s="9"/>
+      <c r="BI64" s="10"/>
+    </row>
+    <row r="65" spans="1:61">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="17"/>
-      <c r="AF64" s="17"/>
-      <c r="AG64" s="17"/>
-      <c r="AH64" s="17"/>
-      <c r="AI64" s="17"/>
-      <c r="AJ64" s="17"/>
-      <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
-      <c r="AM64" s="17"/>
-      <c r="AN64" s="17"/>
-      <c r="AO64" s="17"/>
-      <c r="AP64" s="17"/>
-      <c r="AQ64" s="17"/>
-      <c r="AR64" s="17"/>
-      <c r="AS64" s="17"/>
-      <c r="AT64" s="17"/>
-      <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
-      <c r="AW64" s="17"/>
-      <c r="AX64" s="17"/>
-      <c r="AY64" s="17"/>
-      <c r="AZ64" s="17"/>
-      <c r="BA64" s="17"/>
-      <c r="BB64" s="17"/>
-      <c r="BC64" s="17"/>
-      <c r="BD64" s="17"/>
-      <c r="BE64" s="17"/>
-      <c r="BF64" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG64" s="17"/>
-      <c r="BH64" s="7"/>
-    </row>
-    <row r="65" spans="1:60">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="17" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="9"/>
+      <c r="AO65" s="9"/>
+      <c r="AP65" s="9"/>
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+      <c r="AV65" s="9"/>
+      <c r="AW65" s="9"/>
+      <c r="AX65" s="9"/>
+      <c r="AY65" s="9"/>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="9"/>
+      <c r="BB65" s="9"/>
+      <c r="BC65" s="9"/>
+      <c r="BD65" s="9"/>
+      <c r="BE65" s="9"/>
+      <c r="BF65" s="9"/>
+      <c r="BG65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH65" s="9"/>
+      <c r="BI65" s="10"/>
+    </row>
+    <row r="66" spans="1:61">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="17"/>
-      <c r="AC65" s="17"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="17"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="17"/>
-      <c r="AI65" s="17"/>
-      <c r="AJ65" s="17"/>
-      <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
-      <c r="AM65" s="17"/>
-      <c r="AN65" s="17"/>
-      <c r="AO65" s="17"/>
-      <c r="AP65" s="17"/>
-      <c r="AQ65" s="17"/>
-      <c r="AR65" s="17"/>
-      <c r="AS65" s="17"/>
-      <c r="AT65" s="17"/>
-      <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
-      <c r="AW65" s="17"/>
-      <c r="AX65" s="17"/>
-      <c r="AY65" s="17"/>
-      <c r="AZ65" s="17"/>
-      <c r="BA65" s="17"/>
-      <c r="BB65" s="17"/>
-      <c r="BC65" s="17"/>
-      <c r="BD65" s="17"/>
-      <c r="BE65" s="17"/>
-      <c r="BF65" s="17"/>
-      <c r="BG65" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH65" s="7"/>
-    </row>
-    <row r="66" spans="1:60">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="7"/>
-      <c r="AH66" s="7"/>
-      <c r="AI66" s="7"/>
-      <c r="AJ66" s="7"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="7"/>
-      <c r="AM66" s="7"/>
-      <c r="AN66" s="7"/>
-      <c r="AO66" s="7"/>
-      <c r="AP66" s="7"/>
-      <c r="AQ66" s="7"/>
-      <c r="AR66" s="7"/>
-      <c r="AS66" s="7"/>
-      <c r="AT66" s="7"/>
-      <c r="AU66" s="7"/>
-      <c r="AV66" s="7"/>
-      <c r="AW66" s="7"/>
-      <c r="AX66" s="7"/>
-      <c r="AY66" s="7"/>
-      <c r="AZ66" s="7"/>
-      <c r="BA66" s="7"/>
-      <c r="BB66" s="7"/>
-      <c r="BC66" s="7"/>
-      <c r="BD66" s="7"/>
-      <c r="BE66" s="7"/>
-      <c r="BF66" s="7"/>
-      <c r="BG66" s="7"/>
-      <c r="BH66" s="7"/>
-    </row>
-    <row r="67" spans="1:60">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
-      <c r="AH67" s="7"/>
-      <c r="AI67" s="7"/>
-      <c r="AJ67" s="7"/>
-      <c r="AK67" s="7"/>
-      <c r="AL67" s="7"/>
-      <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
-      <c r="AO67" s="7"/>
-      <c r="AP67" s="7"/>
-      <c r="AQ67" s="7"/>
-      <c r="AR67" s="7"/>
-      <c r="AS67" s="7"/>
-      <c r="AT67" s="7"/>
-      <c r="AU67" s="7"/>
-      <c r="AV67" s="7"/>
-      <c r="AW67" s="7"/>
-      <c r="AX67" s="7"/>
-      <c r="AY67" s="7"/>
-      <c r="AZ67" s="7"/>
-      <c r="BA67" s="7"/>
-      <c r="BB67" s="7"/>
-      <c r="BC67" s="7"/>
-      <c r="BD67" s="7"/>
-      <c r="BE67" s="7"/>
-      <c r="BF67" s="7"/>
-      <c r="BG67" s="7"/>
-      <c r="BH67" s="7"/>
-    </row>
-    <row r="68" spans="1:60">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
-      <c r="AG68" s="7"/>
-      <c r="AH68" s="7"/>
-      <c r="AI68" s="7"/>
-      <c r="AJ68" s="7"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="7"/>
-      <c r="AM68" s="7"/>
-      <c r="AN68" s="7"/>
-      <c r="AO68" s="7"/>
-      <c r="AP68" s="7"/>
-      <c r="AQ68" s="7"/>
-      <c r="AR68" s="7"/>
-      <c r="AS68" s="7"/>
-      <c r="AT68" s="7"/>
-      <c r="AU68" s="7"/>
-      <c r="AV68" s="7"/>
-      <c r="AW68" s="7"/>
-      <c r="AX68" s="7"/>
-      <c r="AY68" s="7"/>
-      <c r="AZ68" s="7"/>
-      <c r="BA68" s="7"/>
-      <c r="BB68" s="7"/>
-      <c r="BC68" s="7"/>
-      <c r="BD68" s="7"/>
-      <c r="BE68" s="7"/>
-      <c r="BF68" s="7"/>
-      <c r="BG68" s="7"/>
-      <c r="BH68" s="7"/>
-    </row>
-    <row r="69" spans="1:60">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="7"/>
-      <c r="AC69" s="7"/>
-      <c r="AD69" s="7"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
-      <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
-      <c r="AI69" s="7"/>
-      <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
-      <c r="AM69" s="7"/>
-      <c r="AN69" s="7"/>
-      <c r="AO69" s="7"/>
-      <c r="AP69" s="7"/>
-      <c r="AQ69" s="7"/>
-      <c r="AR69" s="7"/>
-      <c r="AS69" s="7"/>
-      <c r="AT69" s="7"/>
-      <c r="AU69" s="7"/>
-      <c r="AV69" s="7"/>
-      <c r="AW69" s="7"/>
-      <c r="AX69" s="7"/>
-      <c r="AY69" s="7"/>
-      <c r="AZ69" s="7"/>
-      <c r="BA69" s="7"/>
-      <c r="BB69" s="7"/>
-      <c r="BC69" s="7"/>
-      <c r="BD69" s="7"/>
-      <c r="BE69" s="7"/>
-      <c r="BF69" s="7"/>
-      <c r="BG69" s="7"/>
-      <c r="BH69" s="7"/>
-    </row>
-    <row r="70" spans="1:60">
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="16"/>
-      <c r="AH70" s="16"/>
-      <c r="AI70" s="16"/>
-      <c r="AJ70" s="16"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="16"/>
-      <c r="AM70" s="16"/>
-      <c r="AN70" s="16"/>
-      <c r="AO70" s="16"/>
-      <c r="AP70" s="16"/>
-      <c r="AQ70" s="16"/>
-      <c r="AR70" s="16"/>
-      <c r="AS70" s="16"/>
-      <c r="AT70" s="16"/>
-      <c r="AU70" s="16"/>
-      <c r="AV70" s="16"/>
-      <c r="AW70" s="16"/>
-      <c r="AX70" s="16"/>
-      <c r="AY70" s="16"/>
-      <c r="AZ70" s="16"/>
-      <c r="BA70" s="16"/>
-      <c r="BB70" s="16"/>
-      <c r="BC70" s="16"/>
-      <c r="BD70" s="16"/>
-      <c r="BE70" s="16"/>
-      <c r="BF70" s="16"/>
-      <c r="BG70" s="16"/>
-      <c r="BH70" s="16"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="9"/>
+      <c r="AP66" s="9"/>
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="9"/>
+      <c r="AW66" s="9"/>
+      <c r="AX66" s="9"/>
+      <c r="AY66" s="9"/>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="9"/>
+      <c r="BB66" s="9"/>
+      <c r="BC66" s="9"/>
+      <c r="BD66" s="9"/>
+      <c r="BE66" s="9"/>
+      <c r="BF66" s="9"/>
+      <c r="BG66" s="9"/>
+      <c r="BH66" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI66" s="10"/>
+    </row>
+    <row r="67" spans="1:61">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+    </row>
+    <row r="68" spans="1:61">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="10"/>
+      <c r="AQ68" s="10"/>
+      <c r="AR68" s="10"/>
+      <c r="AS68" s="10"/>
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="10"/>
+      <c r="AW68" s="10"/>
+      <c r="AX68" s="10"/>
+      <c r="AY68" s="10"/>
+      <c r="AZ68" s="10"/>
+      <c r="BA68" s="10"/>
+      <c r="BB68" s="10"/>
+      <c r="BC68" s="10"/>
+      <c r="BD68" s="10"/>
+      <c r="BE68" s="10"/>
+      <c r="BF68" s="10"/>
+      <c r="BG68" s="10"/>
+      <c r="BH68" s="10"/>
+      <c r="BI68" s="10"/>
+    </row>
+    <row r="69" spans="1:61">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="10"/>
+      <c r="AS69" s="10"/>
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
+      <c r="AX69" s="10"/>
+      <c r="AY69" s="10"/>
+      <c r="AZ69" s="10"/>
+      <c r="BA69" s="10"/>
+      <c r="BB69" s="10"/>
+      <c r="BC69" s="10"/>
+      <c r="BD69" s="10"/>
+      <c r="BE69" s="10"/>
+      <c r="BF69" s="10"/>
+      <c r="BG69" s="10"/>
+      <c r="BH69" s="10"/>
+      <c r="BI69" s="10"/>
+    </row>
+    <row r="70" spans="1:61">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AX70" s="10"/>
+      <c r="AY70" s="10"/>
+      <c r="AZ70" s="10"/>
+      <c r="BA70" s="10"/>
+      <c r="BB70" s="10"/>
+      <c r="BC70" s="10"/>
+      <c r="BD70" s="10"/>
+      <c r="BE70" s="10"/>
+      <c r="BF70" s="10"/>
+      <c r="BG70" s="10"/>
+      <c r="BH70" s="10"/>
+      <c r="BI70" s="10"/>
+    </row>
+    <row r="71" spans="1:61">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="8"/>
+      <c r="AR71" s="8"/>
+      <c r="AS71" s="8"/>
+      <c r="AT71" s="8"/>
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="8"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="8"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="8"/>
+      <c r="BB71" s="8"/>
+      <c r="BC71" s="8"/>
+      <c r="BD71" s="8"/>
+      <c r="BE71" s="8"/>
+      <c r="BF71" s="8"/>
+      <c r="BG71" s="8"/>
+      <c r="BH71" s="8"/>
+      <c r="BI71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B31"/>
-    <mergeCell ref="C1:BH2"/>
-    <mergeCell ref="C31:BG33"/>
-    <mergeCell ref="A32:B69"/>
-    <mergeCell ref="E3:BG3"/>
+    <mergeCell ref="B1:B32"/>
+    <mergeCell ref="C1:BI2"/>
+    <mergeCell ref="C32:BH34"/>
+    <mergeCell ref="A33:B70"/>
+    <mergeCell ref="E3:BH3"/>
     <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C5:C30"/>
-    <mergeCell ref="E34:BG34"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C36:C65"/>
-    <mergeCell ref="C66:BH69"/>
-    <mergeCell ref="BH3:BH65"/>
+    <mergeCell ref="E35:BH35"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C37:C66"/>
+    <mergeCell ref="C67:BI70"/>
+    <mergeCell ref="BI3:BI66"/>
+    <mergeCell ref="C5:C31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/matriceTracciabilita/matrice tracciabilità.xlsx
+++ b/matriceTracciabilita/matrice tracciabilità.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
   <si>
     <t>Requisiti</t>
   </si>
@@ -42,9 +42,6 @@
     <t>RF.V.B.3</t>
   </si>
   <si>
-    <t>RF.V.B.4</t>
-  </si>
-  <si>
     <t>RF.S.B.5</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>RF.A.F.7</t>
+  </si>
+  <si>
+    <t>RF.S.B.4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -477,6 +477,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,9 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -504,8 +507,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,211 +804,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI71"/>
+  <dimension ref="A1:BH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="3.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="5" customWidth="1"/>
-    <col min="5" max="60" width="3.25" customWidth="1"/>
+    <col min="5" max="59" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:61">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-    </row>
-    <row r="2" spans="2:61">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-    </row>
-    <row r="3" spans="2:61">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13" t="s">
+    <row r="1" spans="2:60">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+    </row>
+    <row r="2" spans="2:60">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+    </row>
+    <row r="3" spans="2:60">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="10"/>
-    </row>
-    <row r="4" spans="2:61" s="1" customFormat="1" ht="61.5">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="12"/>
+    </row>
+    <row r="4" spans="2:60" s="1" customFormat="1" ht="61.5">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>9</v>
@@ -1082,10 +1082,10 @@
         <v>26</v>
       </c>
       <c r="AD4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>28</v>
@@ -1171,21 +1171,18 @@
       <c r="BG4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BH4" s="12"/>
+    </row>
+    <row r="5" spans="2:60" ht="15" customHeight="1">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BI4" s="10"/>
-    </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1211,8 +1208,8 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
@@ -1241,18 +1238,17 @@
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
       <c r="BG5" s="6"/>
-      <c r="BH5" s="6"/>
-      <c r="BI5" s="10"/>
-    </row>
-    <row r="6" spans="2:61">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
+      <c r="BH5" s="12"/>
+    </row>
+    <row r="6" spans="2:60">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1277,8 +1273,8 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
@@ -1307,19 +1303,18 @@
       <c r="BE6" s="6"/>
       <c r="BF6" s="6"/>
       <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="10"/>
-    </row>
-    <row r="7" spans="2:61">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
+      <c r="BH6" s="12"/>
+    </row>
+    <row r="7" spans="2:60">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1343,8 +1338,8 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -1373,20 +1368,19 @@
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="10"/>
-    </row>
-    <row r="8" spans="2:61">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
+      <c r="BH7" s="12"/>
+    </row>
+    <row r="8" spans="2:60">
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>110</v>
+      <c r="H8" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1409,8 +1403,8 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -1439,25 +1433,22 @@
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="10"/>
-    </row>
-    <row r="9" spans="2:61">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
+      <c r="BH8" s="12"/>
+    </row>
+    <row r="9" spans="2:60">
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="I9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1477,8 +1468,8 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -1507,24 +1498,23 @@
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
       <c r="BG9" s="6"/>
-      <c r="BH9" s="6"/>
-      <c r="BI9" s="10"/>
-    </row>
-    <row r="10" spans="2:61">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
+      <c r="BH9" s="12"/>
+    </row>
+    <row r="10" spans="2:60">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="J10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1543,8 +1533,8 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
@@ -1573,14 +1563,13 @@
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
       <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="10"/>
-    </row>
-    <row r="11" spans="2:61">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
+      <c r="BH10" s="12"/>
+    </row>
+    <row r="11" spans="2:60">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1588,10 +1577,10 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="K11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1609,8 +1598,8 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -1639,14 +1628,13 @@
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
       <c r="BG11" s="6"/>
-      <c r="BH11" s="6"/>
-      <c r="BI11" s="10"/>
-    </row>
-    <row r="12" spans="2:61">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
+      <c r="BH11" s="12"/>
+    </row>
+    <row r="12" spans="2:60">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1655,10 +1643,10 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="L12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1675,8 +1663,8 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
@@ -1705,14 +1693,13 @@
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
       <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="10"/>
-    </row>
-    <row r="13" spans="2:61">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
+      <c r="BH12" s="12"/>
+    </row>
+    <row r="13" spans="2:60">
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1722,10 +1709,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="M13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1741,8 +1728,8 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
@@ -1771,14 +1758,13 @@
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
       <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="10"/>
-    </row>
-    <row r="14" spans="2:61">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
+      <c r="BH13" s="12"/>
+    </row>
+    <row r="14" spans="2:60">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1789,10 +1775,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="N14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -1807,8 +1793,8 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
@@ -1837,14 +1823,13 @@
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
       <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="10"/>
-    </row>
-    <row r="15" spans="2:61">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
+      <c r="BH14" s="12"/>
+    </row>
+    <row r="15" spans="2:60">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1856,10 +1841,10 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="O15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1873,8 +1858,8 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
@@ -1903,14 +1888,13 @@
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
       <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="10"/>
-    </row>
-    <row r="16" spans="2:61">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
+      <c r="BH15" s="12"/>
+    </row>
+    <row r="16" spans="2:60">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1923,10 +1907,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="P16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1939,8 +1923,8 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
@@ -1969,14 +1953,13 @@
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
       <c r="BG16" s="6"/>
-      <c r="BH16" s="6"/>
-      <c r="BI16" s="10"/>
-    </row>
-    <row r="17" spans="2:61">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
+      <c r="BH16" s="12"/>
+    </row>
+    <row r="17" spans="2:60">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1990,10 +1973,10 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="Q17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2005,8 +1988,8 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
@@ -2035,14 +2018,13 @@
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
       <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="10"/>
-    </row>
-    <row r="18" spans="2:61">
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
+      <c r="BH17" s="12"/>
+    </row>
+    <row r="18" spans="2:60">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2057,10 +2039,10 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="R18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -2071,8 +2053,8 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
@@ -2101,14 +2083,13 @@
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
       <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="10"/>
-    </row>
-    <row r="19" spans="2:61">
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
+      <c r="BH18" s="12"/>
+    </row>
+    <row r="19" spans="2:60">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2124,10 +2105,10 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="S19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2137,8 +2118,8 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
@@ -2167,14 +2148,13 @@
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="10"/>
-    </row>
-    <row r="20" spans="2:61">
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
+      <c r="BH19" s="12"/>
+    </row>
+    <row r="20" spans="2:60">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2191,10 +2171,10 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="T20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2203,8 +2183,8 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
@@ -2233,14 +2213,13 @@
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
       <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="10"/>
-    </row>
-    <row r="21" spans="2:61">
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
+      <c r="BH20" s="12"/>
+    </row>
+    <row r="21" spans="2:60">
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2258,10 +2237,10 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="U21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -2269,8 +2248,8 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
@@ -2299,14 +2278,13 @@
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
       <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="10"/>
-    </row>
-    <row r="22" spans="2:61">
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
+      <c r="BH21" s="12"/>
+    </row>
+    <row r="22" spans="2:60">
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2325,18 +2303,18 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="V22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
@@ -2365,14 +2343,13 @@
       <c r="BE22" s="6"/>
       <c r="BF22" s="6"/>
       <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="10"/>
-    </row>
-    <row r="23" spans="2:61">
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
+      <c r="BH22" s="12"/>
+    </row>
+    <row r="23" spans="2:60">
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -2392,17 +2369,17 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="W23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
@@ -2431,14 +2408,13 @@
       <c r="BE23" s="6"/>
       <c r="BF23" s="6"/>
       <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="10"/>
-    </row>
-    <row r="24" spans="2:61">
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
+      <c r="BH23" s="12"/>
+    </row>
+    <row r="24" spans="2:60">
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2459,16 +2435,16 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="X24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
@@ -2497,14 +2473,13 @@
       <c r="BE24" s="6"/>
       <c r="BF24" s="6"/>
       <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="10"/>
-    </row>
-    <row r="25" spans="2:61">
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
+      <c r="BH24" s="12"/>
+    </row>
+    <row r="25" spans="2:60">
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2525,16 +2500,16 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="X25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
@@ -2563,14 +2538,13 @@
       <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
       <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="10"/>
-    </row>
-    <row r="26" spans="2:61">
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
+      <c r="BH25" s="12"/>
+    </row>
+    <row r="26" spans="2:60">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -2591,16 +2565,16 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="X26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
@@ -2629,14 +2603,13 @@
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
       <c r="BG26" s="6"/>
-      <c r="BH26" s="6"/>
-      <c r="BI26" s="10"/>
-    </row>
-    <row r="27" spans="2:61">
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
+      <c r="BH26" s="12"/>
+    </row>
+    <row r="27" spans="2:60">
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -2658,15 +2631,15 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="Y27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
@@ -2695,14 +2668,13 @@
       <c r="BE27" s="6"/>
       <c r="BF27" s="6"/>
       <c r="BG27" s="6"/>
-      <c r="BH27" s="6"/>
-      <c r="BI27" s="10"/>
-    </row>
-    <row r="28" spans="2:61">
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
+      <c r="BH27" s="12"/>
+    </row>
+    <row r="28" spans="2:60">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2725,14 +2697,14 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="Z28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
@@ -2761,14 +2733,13 @@
       <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
       <c r="BG28" s="6"/>
-      <c r="BH28" s="6"/>
-      <c r="BI28" s="10"/>
-    </row>
-    <row r="29" spans="2:61">
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
+      <c r="BH28" s="12"/>
+    </row>
+    <row r="29" spans="2:60">
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2792,13 +2763,13 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AA29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
@@ -2827,14 +2798,13 @@
       <c r="BE29" s="6"/>
       <c r="BF29" s="6"/>
       <c r="BG29" s="6"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="10"/>
-    </row>
-    <row r="30" spans="2:61">
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
+      <c r="BH29" s="12"/>
+    </row>
+    <row r="30" spans="2:60">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -2859,14 +2829,14 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+      <c r="AB30" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="AC30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE30" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="6"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
@@ -2895,333 +2865,327 @@
       <c r="BE30" s="6"/>
       <c r="BF30" s="6"/>
       <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="10"/>
-    </row>
-    <row r="31" spans="2:61">
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
+      <c r="BH30" s="12"/>
+    </row>
+    <row r="31" spans="2:60">
+      <c r="B31" s="12"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="19"/>
-      <c r="BE31" s="19"/>
-      <c r="BF31" s="19"/>
-      <c r="BG31" s="19"/>
-      <c r="BH31" s="19"/>
-      <c r="BI31" s="10"/>
-    </row>
-    <row r="32" spans="2:61">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="11"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
-      <c r="BC32" s="11"/>
-      <c r="BD32" s="11"/>
-      <c r="BE32" s="11"/>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="11"/>
-      <c r="BH32" s="11"/>
-      <c r="BI32" s="10"/>
-    </row>
-    <row r="33" spans="1:61">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="12"/>
-      <c r="AY33" s="12"/>
-      <c r="AZ33" s="12"/>
-      <c r="BA33" s="12"/>
-      <c r="BB33" s="12"/>
-      <c r="BC33" s="12"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="12"/>
-      <c r="BG33" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+      <c r="BE31" s="11"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="12"/>
+    </row>
+    <row r="32" spans="2:60">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BF32" s="13"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="12"/>
+    </row>
+    <row r="33" spans="1:60">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
       <c r="BH33" s="12"/>
-      <c r="BI33" s="10"/>
-    </row>
-    <row r="34" spans="1:61">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="AY34" s="12"/>
-      <c r="AZ34" s="12"/>
-      <c r="BA34" s="12"/>
-      <c r="BB34" s="12"/>
-      <c r="BC34" s="12"/>
-      <c r="BD34" s="12"/>
-      <c r="BE34" s="12"/>
-      <c r="BF34" s="12"/>
-      <c r="BG34" s="12"/>
+    </row>
+    <row r="34" spans="1:60">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="14"/>
+      <c r="BD34" s="14"/>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14"/>
+      <c r="BG34" s="14"/>
       <c r="BH34" s="12"/>
-      <c r="BI34" s="10"/>
-    </row>
-    <row r="35" spans="1:61">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13" t="s">
+    </row>
+    <row r="35" spans="1:60">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="13"/>
-      <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
-      <c r="BH35" s="13"/>
-      <c r="BI35" s="10"/>
-    </row>
-    <row r="36" spans="1:61" ht="61.5">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="12"/>
+    </row>
+    <row r="36" spans="1:60" ht="61.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3298,10 +3262,10 @@
         <v>26</v>
       </c>
       <c r="AD36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE36" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AE36" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="AF36" s="2" t="s">
         <v>28</v>
@@ -3387,19 +3351,16 @@
       <c r="BG36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BH36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI36" s="10"/>
-    </row>
-    <row r="37" spans="1:61" ht="15" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="14" t="s">
+      <c r="BH36" s="12"/>
+    </row>
+    <row r="37" spans="1:60" ht="15" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3426,11 +3387,11 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -3458,15 +3419,14 @@
       <c r="BE37" s="6"/>
       <c r="BF37" s="6"/>
       <c r="BG37" s="6"/>
-      <c r="BH37" s="6"/>
-      <c r="BI37" s="10"/>
-    </row>
-    <row r="38" spans="1:61">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
+      <c r="BH37" s="12"/>
+    </row>
+    <row r="38" spans="1:60">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3493,12 +3453,12 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
@@ -3525,15 +3485,14 @@
       <c r="BE38" s="6"/>
       <c r="BF38" s="6"/>
       <c r="BG38" s="6"/>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="10"/>
-    </row>
-    <row r="39" spans="1:61">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="14"/>
+      <c r="BH38" s="12"/>
+    </row>
+    <row r="39" spans="1:60">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3560,13 +3519,13 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="6"/>
       <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AG39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
@@ -3592,15 +3551,14 @@
       <c r="BE39" s="6"/>
       <c r="BF39" s="6"/>
       <c r="BG39" s="6"/>
-      <c r="BH39" s="6"/>
-      <c r="BI39" s="10"/>
-    </row>
-    <row r="40" spans="1:61">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="14"/>
+      <c r="BH39" s="12"/>
+    </row>
+    <row r="40" spans="1:60">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3627,14 +3585,14 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="6"/>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AH40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
@@ -3659,15 +3617,14 @@
       <c r="BE40" s="6"/>
       <c r="BF40" s="6"/>
       <c r="BG40" s="6"/>
-      <c r="BH40" s="6"/>
-      <c r="BI40" s="10"/>
-    </row>
-    <row r="41" spans="1:61">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="14"/>
+      <c r="BH40" s="12"/>
+    </row>
+    <row r="41" spans="1:60">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3694,15 +3651,15 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="6"/>
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AI41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
@@ -3726,15 +3683,14 @@
       <c r="BE41" s="6"/>
       <c r="BF41" s="6"/>
       <c r="BG41" s="6"/>
-      <c r="BH41" s="6"/>
-      <c r="BI41" s="10"/>
-    </row>
-    <row r="42" spans="1:61">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="14"/>
+      <c r="BH41" s="12"/>
+    </row>
+    <row r="42" spans="1:60">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3761,16 +3717,16 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AJ42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
@@ -3793,15 +3749,14 @@
       <c r="BE42" s="6"/>
       <c r="BF42" s="6"/>
       <c r="BG42" s="6"/>
-      <c r="BH42" s="6"/>
-      <c r="BI42" s="10"/>
-    </row>
-    <row r="43" spans="1:61">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
+      <c r="BH42" s="12"/>
+    </row>
+    <row r="43" spans="1:60">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3828,17 +3783,17 @@
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AK43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL43" s="6"/>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
@@ -3860,15 +3815,14 @@
       <c r="BE43" s="6"/>
       <c r="BF43" s="6"/>
       <c r="BG43" s="6"/>
-      <c r="BH43" s="6"/>
-      <c r="BI43" s="10"/>
-    </row>
-    <row r="44" spans="1:61">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="14"/>
+      <c r="BH43" s="12"/>
+    </row>
+    <row r="44" spans="1:60">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3895,18 +3849,18 @@
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AL44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM44" s="6"/>
       <c r="AN44" s="6"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6"/>
@@ -3927,15 +3881,14 @@
       <c r="BE44" s="6"/>
       <c r="BF44" s="6"/>
       <c r="BG44" s="6"/>
-      <c r="BH44" s="6"/>
-      <c r="BI44" s="10"/>
-    </row>
-    <row r="45" spans="1:61">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="14"/>
+      <c r="BH44" s="12"/>
+    </row>
+    <row r="45" spans="1:60">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3962,8 +3915,8 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -3971,10 +3924,10 @@
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AM45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
@@ -3994,15 +3947,14 @@
       <c r="BE45" s="6"/>
       <c r="BF45" s="6"/>
       <c r="BG45" s="6"/>
-      <c r="BH45" s="6"/>
-      <c r="BI45" s="10"/>
-    </row>
-    <row r="46" spans="1:61">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="14"/>
+      <c r="BH45" s="12"/>
+    </row>
+    <row r="46" spans="1:60">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -4029,8 +3981,8 @@
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
@@ -4039,10 +3991,10 @@
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AN46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
@@ -4061,15 +4013,14 @@
       <c r="BE46" s="6"/>
       <c r="BF46" s="6"/>
       <c r="BG46" s="6"/>
-      <c r="BH46" s="6"/>
-      <c r="BI46" s="10"/>
-    </row>
-    <row r="47" spans="1:61">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="14"/>
+      <c r="BH46" s="12"/>
+    </row>
+    <row r="47" spans="1:60">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -4096,8 +4047,8 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
@@ -4107,10 +4058,10 @@
       <c r="AL47" s="6"/>
       <c r="AM47" s="6"/>
       <c r="AN47" s="6"/>
-      <c r="AO47" s="6"/>
-      <c r="AP47" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AO47" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP47" s="6"/>
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
@@ -4128,15 +4079,14 @@
       <c r="BE47" s="6"/>
       <c r="BF47" s="6"/>
       <c r="BG47" s="6"/>
-      <c r="BH47" s="6"/>
-      <c r="BI47" s="10"/>
-    </row>
-    <row r="48" spans="1:61">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
+      <c r="BH47" s="12"/>
+    </row>
+    <row r="48" spans="1:60">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -4163,8 +4113,8 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
@@ -4175,10 +4125,10 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6"/>
       <c r="AO48" s="6"/>
-      <c r="AP48" s="6"/>
-      <c r="AQ48" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AP48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ48" s="6"/>
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
       <c r="AT48" s="6"/>
@@ -4195,15 +4145,14 @@
       <c r="BE48" s="6"/>
       <c r="BF48" s="6"/>
       <c r="BG48" s="6"/>
-      <c r="BH48" s="6"/>
-      <c r="BI48" s="10"/>
-    </row>
-    <row r="49" spans="1:61">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="14"/>
+      <c r="BH48" s="12"/>
+    </row>
+    <row r="49" spans="1:60">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -4230,8 +4179,8 @@
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
@@ -4243,10 +4192,10 @@
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
       <c r="AP49" s="6"/>
-      <c r="AQ49" s="6"/>
-      <c r="AR49" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AQ49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
       <c r="AT49" s="6"/>
       <c r="AU49" s="6"/>
@@ -4262,15 +4211,14 @@
       <c r="BE49" s="6"/>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
-      <c r="BH49" s="6"/>
-      <c r="BI49" s="10"/>
-    </row>
-    <row r="50" spans="1:61">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
+      <c r="BH49" s="12"/>
+    </row>
+    <row r="50" spans="1:60">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -4297,8 +4245,8 @@
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
@@ -4311,10 +4259,10 @@
       <c r="AO50" s="6"/>
       <c r="AP50" s="6"/>
       <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
-      <c r="AS50" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AR50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS50" s="6"/>
       <c r="AT50" s="6"/>
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
@@ -4329,15 +4277,14 @@
       <c r="BE50" s="6"/>
       <c r="BF50" s="6"/>
       <c r="BG50" s="6"/>
-      <c r="BH50" s="6"/>
-      <c r="BI50" s="10"/>
-    </row>
-    <row r="51" spans="1:61">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="14"/>
+      <c r="BH50" s="12"/>
+    </row>
+    <row r="51" spans="1:60">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -4364,8 +4311,8 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
@@ -4379,10 +4326,10 @@
       <c r="AP51" s="6"/>
       <c r="AQ51" s="6"/>
       <c r="AR51" s="6"/>
-      <c r="AS51" s="6"/>
-      <c r="AT51" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AS51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
@@ -4396,15 +4343,14 @@
       <c r="BE51" s="6"/>
       <c r="BF51" s="6"/>
       <c r="BG51" s="6"/>
-      <c r="BH51" s="6"/>
-      <c r="BI51" s="10"/>
-    </row>
-    <row r="52" spans="1:61">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="14"/>
+      <c r="BH51" s="12"/>
+    </row>
+    <row r="52" spans="1:60">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -4431,8 +4377,8 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
@@ -4447,10 +4393,10 @@
       <c r="AQ52" s="6"/>
       <c r="AR52" s="6"/>
       <c r="AS52" s="6"/>
-      <c r="AT52" s="6"/>
-      <c r="AU52" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AT52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
@@ -4463,15 +4409,14 @@
       <c r="BE52" s="6"/>
       <c r="BF52" s="6"/>
       <c r="BG52" s="6"/>
-      <c r="BH52" s="6"/>
-      <c r="BI52" s="10"/>
-    </row>
-    <row r="53" spans="1:61">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="14"/>
+      <c r="BH52" s="12"/>
+    </row>
+    <row r="53" spans="1:60">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -4498,8 +4443,8 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
@@ -4515,10 +4460,10 @@
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
       <c r="AT53" s="6"/>
-      <c r="AU53" s="6"/>
-      <c r="AV53" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AU53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV53" s="6"/>
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
       <c r="AY53" s="6"/>
@@ -4530,15 +4475,14 @@
       <c r="BE53" s="6"/>
       <c r="BF53" s="6"/>
       <c r="BG53" s="6"/>
-      <c r="BH53" s="6"/>
-      <c r="BI53" s="10"/>
-    </row>
-    <row r="54" spans="1:61">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="14"/>
+      <c r="BH53" s="12"/>
+    </row>
+    <row r="54" spans="1:60">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -4565,8 +4509,8 @@
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
@@ -4583,10 +4527,10 @@
       <c r="AS54" s="6"/>
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
-      <c r="AV54" s="6"/>
-      <c r="AW54" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AV54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
       <c r="AY54" s="6"/>
       <c r="AZ54" s="6"/>
@@ -4597,15 +4541,14 @@
       <c r="BE54" s="6"/>
       <c r="BF54" s="6"/>
       <c r="BG54" s="6"/>
-      <c r="BH54" s="6"/>
-      <c r="BI54" s="10"/>
-    </row>
-    <row r="55" spans="1:61">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="14"/>
+      <c r="BH54" s="12"/>
+    </row>
+    <row r="55" spans="1:60">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -4632,8 +4575,8 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
@@ -4651,10 +4594,10 @@
       <c r="AT55" s="6"/>
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
-      <c r="AW55" s="6"/>
-      <c r="AX55" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AW55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX55" s="6"/>
       <c r="AY55" s="6"/>
       <c r="AZ55" s="6"/>
       <c r="BA55" s="6"/>
@@ -4664,15 +4607,14 @@
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
       <c r="BG55" s="6"/>
-      <c r="BH55" s="6"/>
-      <c r="BI55" s="10"/>
-    </row>
-    <row r="56" spans="1:61">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
+      <c r="BH55" s="12"/>
+    </row>
+    <row r="56" spans="1:60">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -4699,8 +4641,8 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
@@ -4719,10 +4661,10 @@
       <c r="AU56" s="6"/>
       <c r="AV56" s="6"/>
       <c r="AW56" s="6"/>
-      <c r="AX56" s="6"/>
-      <c r="AY56" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AX56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY56" s="6"/>
       <c r="AZ56" s="6"/>
       <c r="BA56" s="6"/>
       <c r="BB56" s="6"/>
@@ -4731,15 +4673,14 @@
       <c r="BE56" s="6"/>
       <c r="BF56" s="6"/>
       <c r="BG56" s="6"/>
-      <c r="BH56" s="6"/>
-      <c r="BI56" s="10"/>
-    </row>
-    <row r="57" spans="1:61">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="14"/>
+      <c r="BH56" s="12"/>
+    </row>
+    <row r="57" spans="1:60">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4766,8 +4707,8 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
       <c r="AG57" s="6"/>
       <c r="AH57" s="6"/>
@@ -4787,10 +4728,10 @@
       <c r="AV57" s="6"/>
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
-      <c r="AY57" s="6"/>
-      <c r="AZ57" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AY57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ57" s="6"/>
       <c r="BA57" s="6"/>
       <c r="BB57" s="6"/>
       <c r="BC57" s="6"/>
@@ -4798,15 +4739,14 @@
       <c r="BE57" s="6"/>
       <c r="BF57" s="6"/>
       <c r="BG57" s="6"/>
-      <c r="BH57" s="6"/>
-      <c r="BI57" s="10"/>
-    </row>
-    <row r="58" spans="1:61">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
+      <c r="BH57" s="12"/>
+    </row>
+    <row r="58" spans="1:60">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -4833,8 +4773,8 @@
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
@@ -4855,25 +4795,24 @@
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
       <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="AZ58" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA58" s="6"/>
       <c r="BB58" s="6"/>
       <c r="BC58" s="6"/>
       <c r="BD58" s="6"/>
       <c r="BE58" s="6"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="10"/>
-    </row>
-    <row r="59" spans="1:61">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="14"/>
+      <c r="BH58" s="12"/>
+    </row>
+    <row r="59" spans="1:60">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -4900,8 +4839,8 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
@@ -4923,24 +4862,23 @@
       <c r="AX59" s="6"/>
       <c r="AY59" s="6"/>
       <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="BA59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB59" s="6"/>
       <c r="BC59" s="6"/>
       <c r="BD59" s="6"/>
       <c r="BE59" s="6"/>
       <c r="BF59" s="6"/>
       <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="10"/>
-    </row>
-    <row r="60" spans="1:61">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="14"/>
+      <c r="BH59" s="12"/>
+    </row>
+    <row r="60" spans="1:60">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4967,8 +4905,8 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="6"/>
       <c r="AF60" s="6"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6"/>
@@ -4991,23 +4929,22 @@
       <c r="AY60" s="6"/>
       <c r="AZ60" s="6"/>
       <c r="BA60" s="6"/>
-      <c r="BB60" s="6"/>
-      <c r="BC60" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="BB60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC60" s="6"/>
       <c r="BD60" s="6"/>
       <c r="BE60" s="6"/>
       <c r="BF60" s="6"/>
       <c r="BG60" s="6"/>
-      <c r="BH60" s="6"/>
-      <c r="BI60" s="10"/>
-    </row>
-    <row r="61" spans="1:61">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="14"/>
+      <c r="BH60" s="12"/>
+    </row>
+    <row r="61" spans="1:60">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -5034,8 +4971,8 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
       <c r="AG61" s="6"/>
       <c r="AH61" s="6"/>
@@ -5059,22 +4996,21 @@
       <c r="AZ61" s="6"/>
       <c r="BA61" s="6"/>
       <c r="BB61" s="6"/>
-      <c r="BC61" s="6"/>
-      <c r="BD61" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="BC61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD61" s="6"/>
       <c r="BE61" s="6"/>
       <c r="BF61" s="6"/>
       <c r="BG61" s="6"/>
-      <c r="BH61" s="6"/>
-      <c r="BI61" s="10"/>
-    </row>
-    <row r="62" spans="1:61">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
+      <c r="BH61" s="12"/>
+    </row>
+    <row r="62" spans="1:60">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -5101,8 +5037,8 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6"/>
@@ -5127,21 +5063,20 @@
       <c r="BA62" s="6"/>
       <c r="BB62" s="6"/>
       <c r="BC62" s="6"/>
-      <c r="BD62" s="6"/>
-      <c r="BE62" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="BD62" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE62" s="6"/>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
-      <c r="BH62" s="6"/>
-      <c r="BI62" s="10"/>
-    </row>
-    <row r="63" spans="1:61">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="14"/>
+      <c r="BH62" s="12"/>
+    </row>
+    <row r="63" spans="1:60">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -5168,8 +5103,8 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
@@ -5194,21 +5129,20 @@
       <c r="BA63" s="6"/>
       <c r="BB63" s="6"/>
       <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="BD63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE63" s="6"/>
       <c r="BF63" s="6"/>
       <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="10"/>
-    </row>
-    <row r="64" spans="1:61">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="14"/>
+      <c r="BH63" s="12"/>
+    </row>
+    <row r="64" spans="1:60">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5262,20 +5196,19 @@
       <c r="BB64" s="9"/>
       <c r="BC64" s="9"/>
       <c r="BD64" s="9"/>
-      <c r="BE64" s="9"/>
-      <c r="BF64" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="BE64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF64" s="9"/>
       <c r="BG64" s="9"/>
-      <c r="BH64" s="9"/>
-      <c r="BI64" s="10"/>
-    </row>
-    <row r="65" spans="1:61">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="14"/>
+      <c r="BH64" s="12"/>
+    </row>
+    <row r="65" spans="1:60">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -5330,19 +5263,18 @@
       <c r="BC65" s="9"/>
       <c r="BD65" s="9"/>
       <c r="BE65" s="9"/>
-      <c r="BF65" s="9"/>
-      <c r="BG65" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH65" s="9"/>
-      <c r="BI65" s="10"/>
-    </row>
-    <row r="66" spans="1:61">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="14"/>
+      <c r="BF65" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG65" s="9"/>
+      <c r="BH65" s="12"/>
+    </row>
+    <row r="66" spans="1:60">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5398,265 +5330,260 @@
       <c r="BD66" s="9"/>
       <c r="BE66" s="9"/>
       <c r="BF66" s="9"/>
-      <c r="BG66" s="9"/>
-      <c r="BH66" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI66" s="10"/>
-    </row>
-    <row r="67" spans="1:61">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
-      <c r="Z67" s="10"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
-      <c r="AD67" s="10"/>
-      <c r="AE67" s="10"/>
-      <c r="AF67" s="10"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
-      <c r="AI67" s="10"/>
-      <c r="AJ67" s="10"/>
-      <c r="AK67" s="10"/>
-      <c r="AL67" s="10"/>
-      <c r="AM67" s="10"/>
-      <c r="AN67" s="10"/>
-      <c r="AO67" s="10"/>
-      <c r="AP67" s="10"/>
-      <c r="AQ67" s="10"/>
-      <c r="AR67" s="10"/>
-      <c r="AS67" s="10"/>
-      <c r="AT67" s="10"/>
-      <c r="AU67" s="10"/>
-      <c r="AV67" s="10"/>
-      <c r="AW67" s="10"/>
-      <c r="AX67" s="10"/>
-      <c r="AY67" s="10"/>
-      <c r="AZ67" s="10"/>
-      <c r="BA67" s="10"/>
-      <c r="BB67" s="10"/>
-      <c r="BC67" s="10"/>
-      <c r="BD67" s="10"/>
-      <c r="BE67" s="10"/>
-      <c r="BF67" s="10"/>
-      <c r="BG67" s="10"/>
-      <c r="BH67" s="10"/>
-      <c r="BI67" s="10"/>
-    </row>
-    <row r="68" spans="1:61">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
-      <c r="AS68" s="10"/>
-      <c r="AT68" s="10"/>
-      <c r="AU68" s="10"/>
-      <c r="AV68" s="10"/>
-      <c r="AW68" s="10"/>
-      <c r="AX68" s="10"/>
-      <c r="AY68" s="10"/>
-      <c r="AZ68" s="10"/>
-      <c r="BA68" s="10"/>
-      <c r="BB68" s="10"/>
-      <c r="BC68" s="10"/>
-      <c r="BD68" s="10"/>
-      <c r="BE68" s="10"/>
-      <c r="BF68" s="10"/>
-      <c r="BG68" s="10"/>
-      <c r="BH68" s="10"/>
-      <c r="BI68" s="10"/>
-    </row>
-    <row r="69" spans="1:61">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="10"/>
-      <c r="AE69" s="10"/>
-      <c r="AF69" s="10"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="10"/>
-      <c r="AO69" s="10"/>
-      <c r="AP69" s="10"/>
-      <c r="AQ69" s="10"/>
-      <c r="AR69" s="10"/>
-      <c r="AS69" s="10"/>
-      <c r="AT69" s="10"/>
-      <c r="AU69" s="10"/>
-      <c r="AV69" s="10"/>
-      <c r="AW69" s="10"/>
-      <c r="AX69" s="10"/>
-      <c r="AY69" s="10"/>
-      <c r="AZ69" s="10"/>
-      <c r="BA69" s="10"/>
-      <c r="BB69" s="10"/>
-      <c r="BC69" s="10"/>
-      <c r="BD69" s="10"/>
-      <c r="BE69" s="10"/>
-      <c r="BF69" s="10"/>
-      <c r="BG69" s="10"/>
-      <c r="BH69" s="10"/>
-      <c r="BI69" s="10"/>
-    </row>
-    <row r="70" spans="1:61">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
-      <c r="Z70" s="10"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="10"/>
-      <c r="AF70" s="10"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="10"/>
-      <c r="AI70" s="10"/>
-      <c r="AJ70" s="10"/>
-      <c r="AK70" s="10"/>
-      <c r="AL70" s="10"/>
-      <c r="AM70" s="10"/>
-      <c r="AN70" s="10"/>
-      <c r="AO70" s="10"/>
-      <c r="AP70" s="10"/>
-      <c r="AQ70" s="10"/>
-      <c r="AR70" s="10"/>
-      <c r="AS70" s="10"/>
-      <c r="AT70" s="10"/>
-      <c r="AU70" s="10"/>
-      <c r="AV70" s="10"/>
-      <c r="AW70" s="10"/>
-      <c r="AX70" s="10"/>
-      <c r="AY70" s="10"/>
-      <c r="AZ70" s="10"/>
-      <c r="BA70" s="10"/>
-      <c r="BB70" s="10"/>
-      <c r="BC70" s="10"/>
-      <c r="BD70" s="10"/>
-      <c r="BE70" s="10"/>
-      <c r="BF70" s="10"/>
-      <c r="BG70" s="10"/>
-      <c r="BH70" s="10"/>
-      <c r="BI70" s="10"/>
-    </row>
-    <row r="71" spans="1:61">
+      <c r="BG66" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH66" s="12"/>
+    </row>
+    <row r="67" spans="1:60">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="12"/>
+      <c r="AY67" s="12"/>
+      <c r="AZ67" s="12"/>
+      <c r="BA67" s="12"/>
+      <c r="BB67" s="12"/>
+      <c r="BC67" s="12"/>
+      <c r="BD67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BF67" s="12"/>
+      <c r="BG67" s="12"/>
+      <c r="BH67" s="12"/>
+    </row>
+    <row r="68" spans="1:60">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="12"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+    </row>
+    <row r="69" spans="1:60">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+    </row>
+    <row r="70" spans="1:60">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="12"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+    </row>
+    <row r="71" spans="1:60">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -5715,21 +5642,20 @@
       <c r="BF71" s="8"/>
       <c r="BG71" s="8"/>
       <c r="BH71" s="8"/>
-      <c r="BI71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:B32"/>
-    <mergeCell ref="C1:BI2"/>
-    <mergeCell ref="C32:BH34"/>
+    <mergeCell ref="C1:BH2"/>
+    <mergeCell ref="C32:BG34"/>
     <mergeCell ref="A33:B70"/>
-    <mergeCell ref="E3:BH3"/>
+    <mergeCell ref="E3:BG3"/>
     <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E35:BH35"/>
+    <mergeCell ref="E35:BG35"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="C37:C66"/>
-    <mergeCell ref="C67:BI70"/>
-    <mergeCell ref="BI3:BI66"/>
+    <mergeCell ref="C67:BH70"/>
+    <mergeCell ref="BH3:BH66"/>
     <mergeCell ref="C5:C31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
